--- a/public/csv/cohort9_term2_workbook.xlsx
+++ b/public/csv/cohort9_term2_workbook.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="cohort9_term1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="153">
   <si>
     <t>StudentID</t>
   </si>
@@ -1026,373 +1023,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="OM"/>
-      <sheetName val="FM2"/>
-      <sheetName val="QA"/>
-      <sheetName val="ASEAN"/>
-      <sheetName val="MCS"/>
-      <sheetName val="MM"/>
-      <sheetName val="ABS"/>
-      <sheetName val="DE"/>
-      <sheetName val="SM"/>
-      <sheetName val="MPO"/>
-      <sheetName val="WAC"/>
-      <sheetName val="BIZNET"/>
-      <sheetName val="MOL"/>
-      <sheetName val="Scholars"/>
-      <sheetName val="Subjects"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71" t="str">
-            <v>Pass</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1680,10 +1310,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,9 +1493,8 @@
       <c r="U3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <f>[1]MOL!E19</f>
-        <v>Pass</v>
+      <c r="V3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1928,9 +1557,8 @@
       <c r="U4" t="s">
         <v>145</v>
       </c>
-      <c r="V4" s="1" t="str">
-        <f>[1]MOL!E32</f>
-        <v>Pass</v>
+      <c r="V4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1996,9 +1624,8 @@
       <c r="U5" t="s">
         <v>145</v>
       </c>
-      <c r="V5" s="1" t="str">
-        <f>[1]MOL!E15</f>
-        <v>Pass</v>
+      <c r="V5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2061,9 +1688,8 @@
       <c r="U6" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="1" t="str">
-        <f>[1]MOL!E55</f>
-        <v>Pass</v>
+      <c r="V6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -2126,9 +1752,8 @@
       <c r="U7" t="s">
         <v>145</v>
       </c>
-      <c r="V7" s="1" t="str">
-        <f>[1]MOL!E50</f>
-        <v>Pass</v>
+      <c r="V7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2194,9 +1819,8 @@
       <c r="U8" t="s">
         <v>145</v>
       </c>
-      <c r="V8" s="1" t="str">
-        <f>[1]MOL!E8</f>
-        <v>Pass</v>
+      <c r="V8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -2259,9 +1883,8 @@
       <c r="U9" t="s">
         <v>145</v>
       </c>
-      <c r="V9" s="1" t="str">
-        <f>[1]MOL!E25</f>
-        <v>Pass</v>
+      <c r="V9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -2324,9 +1947,8 @@
       <c r="U10" t="s">
         <v>145</v>
       </c>
-      <c r="V10" s="1" t="str">
-        <f>[1]MOL!E49</f>
-        <v>Pass</v>
+      <c r="V10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -2389,9 +2011,8 @@
       <c r="U11" t="s">
         <v>145</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f>[1]MOL!E63</f>
-        <v>Pass</v>
+      <c r="V11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -2454,9 +2075,8 @@
       <c r="U12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f>[1]MOL!E7</f>
-        <v>Pass</v>
+      <c r="V12" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -2519,9 +2139,8 @@
       <c r="U13" t="s">
         <v>145</v>
       </c>
-      <c r="V13" s="1" t="str">
-        <f>[1]MOL!E31</f>
-        <v>Pass</v>
+      <c r="V13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -2584,9 +2203,8 @@
       <c r="U14" t="s">
         <v>145</v>
       </c>
-      <c r="V14" s="1" t="str">
-        <f>[1]MOL!E48</f>
-        <v>Pass</v>
+      <c r="V14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2649,9 +2267,8 @@
       <c r="U15" t="s">
         <v>145</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f>[1]MOL!E39</f>
-        <v>Pass</v>
+      <c r="V15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -2714,9 +2331,8 @@
       <c r="U16" t="s">
         <v>145</v>
       </c>
-      <c r="V16" s="1" t="str">
-        <f>[1]MOL!E59</f>
-        <v>Pass</v>
+      <c r="V16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2779,9 +2395,8 @@
       <c r="U17" t="s">
         <v>145</v>
       </c>
-      <c r="V17" s="1" t="str">
-        <f>[1]MOL!E20</f>
-        <v>Pass</v>
+      <c r="V17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -2844,9 +2459,8 @@
       <c r="U18" t="s">
         <v>145</v>
       </c>
-      <c r="V18" s="1" t="str">
-        <f>[1]MOL!E14</f>
-        <v>Pass</v>
+      <c r="V18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -2909,9 +2523,8 @@
       <c r="U19" t="s">
         <v>145</v>
       </c>
-      <c r="V19" s="1" t="str">
-        <f>[1]MOL!E43</f>
-        <v>Pass</v>
+      <c r="V19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -2974,9 +2587,8 @@
       <c r="U20" t="s">
         <v>145</v>
       </c>
-      <c r="V20" s="1" t="str">
-        <f>[1]MOL!E71</f>
-        <v>Pass</v>
+      <c r="V20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -3039,9 +2651,8 @@
       <c r="U21" t="s">
         <v>145</v>
       </c>
-      <c r="V21" s="1" t="str">
-        <f>[1]MOL!E23</f>
-        <v>Pass</v>
+      <c r="V21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -3107,9 +2718,8 @@
       <c r="U22" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="1" t="str">
-        <f>[1]MOL!E70</f>
-        <v>Pass</v>
+      <c r="V22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -3172,9 +2782,8 @@
       <c r="U23" t="s">
         <v>145</v>
       </c>
-      <c r="V23" s="1" t="str">
-        <f>[1]MOL!E57</f>
-        <v>Pass</v>
+      <c r="V23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -3237,9 +2846,8 @@
       <c r="U24" t="s">
         <v>145</v>
       </c>
-      <c r="V24" s="1" t="str">
-        <f>[1]MOL!E11</f>
-        <v>Pass</v>
+      <c r="V24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -3302,9 +2910,8 @@
       <c r="U25" t="s">
         <v>145</v>
       </c>
-      <c r="V25" s="1" t="str">
-        <f>[1]MOL!E17</f>
-        <v>Pass</v>
+      <c r="V25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -3367,9 +2974,8 @@
       <c r="U26" t="s">
         <v>145</v>
       </c>
-      <c r="V26" s="1" t="str">
-        <f>[1]MOL!E35</f>
-        <v>Pass</v>
+      <c r="V26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -3435,9 +3041,8 @@
       <c r="U27" t="s">
         <v>145</v>
       </c>
-      <c r="V27" s="1" t="str">
-        <f>[1]MOL!E36</f>
-        <v>Pass</v>
+      <c r="V27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -3500,9 +3105,8 @@
       <c r="U28" t="s">
         <v>145</v>
       </c>
-      <c r="V28" s="1" t="str">
-        <f>[1]MOL!E67</f>
-        <v>Pass</v>
+      <c r="V28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3565,9 +3169,8 @@
       <c r="U29" t="s">
         <v>145</v>
       </c>
-      <c r="V29" s="1" t="str">
-        <f>[1]MOL!E30</f>
-        <v>Pass</v>
+      <c r="V29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3630,9 +3233,8 @@
       <c r="U30" t="s">
         <v>145</v>
       </c>
-      <c r="V30" s="1" t="str">
-        <f>[1]MOL!E18</f>
-        <v>Pass</v>
+      <c r="V30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3695,9 +3297,8 @@
       <c r="U31" t="s">
         <v>145</v>
       </c>
-      <c r="V31" s="1" t="str">
-        <f>[1]MOL!E45</f>
-        <v>Pass</v>
+      <c r="V31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3760,9 +3361,8 @@
       <c r="U32" t="s">
         <v>145</v>
       </c>
-      <c r="V32" s="1" t="str">
-        <f>[1]MOL!E10</f>
-        <v>Pass</v>
+      <c r="V32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3825,9 +3425,8 @@
       <c r="U33" t="s">
         <v>145</v>
       </c>
-      <c r="V33" s="1" t="str">
-        <f>[1]MOL!E27</f>
-        <v>Pass</v>
+      <c r="V33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3890,9 +3489,8 @@
       <c r="U34" t="s">
         <v>145</v>
       </c>
-      <c r="V34" s="1" t="str">
-        <f>[1]MOL!E44</f>
-        <v>Pass</v>
+      <c r="V34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3955,9 +3553,8 @@
       <c r="U35" t="s">
         <v>145</v>
       </c>
-      <c r="V35" s="1" t="str">
-        <f>[1]MOL!E13</f>
-        <v>Pass</v>
+      <c r="V35" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -4020,9 +3617,8 @@
       <c r="U36" t="s">
         <v>145</v>
       </c>
-      <c r="V36" s="1" t="str">
-        <f>[1]MOL!E26</f>
-        <v>Pass</v>
+      <c r="V36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -4085,9 +3681,8 @@
       <c r="U37" t="s">
         <v>145</v>
       </c>
-      <c r="V37" s="1" t="str">
-        <f>[1]MOL!E53</f>
-        <v>Pass</v>
+      <c r="V37" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -4150,9 +3745,8 @@
       <c r="U38" t="s">
         <v>145</v>
       </c>
-      <c r="V38" s="1" t="str">
-        <f>[1]MOL!E47</f>
-        <v>Pass</v>
+      <c r="V38" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4215,9 +3809,8 @@
       <c r="U39" t="s">
         <v>145</v>
       </c>
-      <c r="V39" s="1" t="str">
-        <f>[1]MOL!E46</f>
-        <v>Pass</v>
+      <c r="V39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -4280,9 +3873,8 @@
       <c r="U40" t="s">
         <v>145</v>
       </c>
-      <c r="V40" s="1" t="str">
-        <f>[1]MOL!E40</f>
-        <v>Pass</v>
+      <c r="V40" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -4348,9 +3940,8 @@
       <c r="U41" t="s">
         <v>145</v>
       </c>
-      <c r="V41" s="1" t="str">
-        <f>[1]MOL!E42</f>
-        <v>Pass</v>
+      <c r="V41" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -4413,9 +4004,8 @@
       <c r="U42" t="s">
         <v>145</v>
       </c>
-      <c r="V42" s="1" t="str">
-        <f>[1]MOL!E61</f>
-        <v>Pass</v>
+      <c r="V42" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -4481,9 +4071,8 @@
       <c r="U43" t="s">
         <v>145</v>
       </c>
-      <c r="V43" s="1" t="str">
-        <f>[1]MOL!E22</f>
-        <v>Pass</v>
+      <c r="V43" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -4546,9 +4135,8 @@
       <c r="U44" t="s">
         <v>145</v>
       </c>
-      <c r="V44" s="1" t="str">
-        <f>[1]MOL!E69</f>
-        <v>Pass</v>
+      <c r="V44" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -4611,9 +4199,8 @@
       <c r="U45" t="s">
         <v>145</v>
       </c>
-      <c r="V45" s="1" t="str">
-        <f>[1]MOL!E52</f>
-        <v>Pass</v>
+      <c r="V45" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -4676,9 +4263,8 @@
       <c r="U46" t="s">
         <v>145</v>
       </c>
-      <c r="V46" s="1" t="str">
-        <f>[1]MOL!E51</f>
-        <v>Pass</v>
+      <c r="V46" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -4741,9 +4327,8 @@
       <c r="U47" t="s">
         <v>145</v>
       </c>
-      <c r="V47" s="1" t="str">
-        <f>[1]MOL!E65</f>
-        <v>Pass</v>
+      <c r="V47" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -4809,9 +4394,8 @@
       <c r="U48" t="s">
         <v>145</v>
       </c>
-      <c r="V48" s="1" t="str">
-        <f>[1]MOL!E33</f>
-        <v>Pass</v>
+      <c r="V48" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -4874,9 +4458,8 @@
       <c r="U49" t="s">
         <v>145</v>
       </c>
-      <c r="V49" s="1" t="str">
-        <f>[1]MOL!E12</f>
-        <v>Pass</v>
+      <c r="V49" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4942,9 +4525,8 @@
       <c r="U50" t="s">
         <v>145</v>
       </c>
-      <c r="V50" s="1" t="str">
-        <f>[1]MOL!E60</f>
-        <v>Pass</v>
+      <c r="V50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -5007,9 +4589,8 @@
       <c r="U51" t="s">
         <v>145</v>
       </c>
-      <c r="V51" s="1" t="str">
-        <f>[1]MOL!E62</f>
-        <v>Pass</v>
+      <c r="V51" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -5072,9 +4653,8 @@
       <c r="U52" t="s">
         <v>145</v>
       </c>
-      <c r="V52" s="1" t="str">
-        <f>[1]MOL!E66</f>
-        <v>Pass</v>
+      <c r="V52" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -5137,9 +4717,8 @@
       <c r="U53" t="s">
         <v>145</v>
       </c>
-      <c r="V53" s="1" t="str">
-        <f>[1]MOL!E64</f>
-        <v>Pass</v>
+      <c r="V53" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -5202,9 +4781,8 @@
       <c r="U54" t="s">
         <v>145</v>
       </c>
-      <c r="V54" s="1" t="str">
-        <f>[1]MOL!E68</f>
-        <v>Pass</v>
+      <c r="V54" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -5270,9 +4848,8 @@
       <c r="U55" t="s">
         <v>145</v>
       </c>
-      <c r="V55" s="1" t="str">
-        <f>[1]MOL!E29</f>
-        <v>Pass</v>
+      <c r="V55" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -5335,9 +4912,8 @@
       <c r="U56" t="s">
         <v>145</v>
       </c>
-      <c r="V56" s="1" t="str">
-        <f>[1]MOL!E24</f>
-        <v>Pass</v>
+      <c r="V56" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -5400,9 +4976,8 @@
       <c r="U57" t="s">
         <v>145</v>
       </c>
-      <c r="V57" s="1" t="str">
-        <f>[1]MOL!E37</f>
-        <v>Pass</v>
+      <c r="V57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -5465,9 +5040,8 @@
       <c r="U58" t="s">
         <v>145</v>
       </c>
-      <c r="V58" s="1" t="str">
-        <f>[1]MOL!E38</f>
-        <v>Pass</v>
+      <c r="V58" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -5530,9 +5104,8 @@
       <c r="U59" t="s">
         <v>145</v>
       </c>
-      <c r="V59" s="1" t="str">
-        <f>[1]MOL!E34</f>
-        <v>Pass</v>
+      <c r="V59" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -5598,9 +5171,8 @@
       <c r="U60" t="s">
         <v>145</v>
       </c>
-      <c r="V60" s="1" t="str">
-        <f>[1]MOL!E28</f>
-        <v>Pass</v>
+      <c r="V60" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -5663,9 +5235,8 @@
       <c r="U61" t="s">
         <v>145</v>
       </c>
-      <c r="V61" s="1" t="str">
-        <f>[1]MOL!E16</f>
-        <v>Pass</v>
+      <c r="V61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -5728,9 +5299,8 @@
       <c r="U62" t="s">
         <v>145</v>
       </c>
-      <c r="V62" s="1" t="str">
-        <f>[1]MOL!E21</f>
-        <v>Pass</v>
+      <c r="V62" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -5796,9 +5366,8 @@
       <c r="U63" t="s">
         <v>145</v>
       </c>
-      <c r="V63" s="1" t="str">
-        <f>[1]MOL!E58</f>
-        <v>Pass</v>
+      <c r="V63" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -5864,9 +5433,8 @@
       <c r="U64" t="s">
         <v>145</v>
       </c>
-      <c r="V64" s="1" t="str">
-        <f>[1]MOL!E9</f>
-        <v>Pass</v>
+      <c r="V64" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5929,9 +5497,8 @@
       <c r="U65" t="s">
         <v>145</v>
       </c>
-      <c r="V65" s="1" t="str">
-        <f>[1]MOL!E56</f>
-        <v>Pass</v>
+      <c r="V65" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -6000,9 +5567,8 @@
       <c r="U66" t="s">
         <v>145</v>
       </c>
-      <c r="V66" s="1" t="str">
-        <f>[1]MOL!E54</f>
-        <v>Pass</v>
+      <c r="V66" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -6065,9 +5631,8 @@
       <c r="U67" t="s">
         <v>145</v>
       </c>
-      <c r="V67" s="1" t="str">
-        <f>[1]MOL!E41</f>
-        <v>Pass</v>
+      <c r="V67" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:22">
